--- a/Table/Enum/Enum.xlsx
+++ b/Table/Enum/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectH\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AC0C9-0A61-459A-8416-2EE6E0CA55EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581AE276-0EE4-42B0-AAD8-2BB5C97E4284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="2175" windowWidth="21600" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>!Enum</t>
   </si>
@@ -97,6 +97,82 @@
   </si>
   <si>
     <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배틀 씬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 씬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_One</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음(버프나 힐링 스킬등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +525,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,7 +613,9 @@
         <v>10</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -551,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -574,7 +652,9 @@
         <v>13</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -588,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -615,7 +695,9 @@
         <v>17</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -628,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -638,18 +720,52 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
@@ -658,34 +774,76 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
